--- a/demodata/ZRFI005.XLSX
+++ b/demodata/ZRFI005.XLSX
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$108</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="284">
   <si>
     <t>1000</t>
   </si>
@@ -423,18 +423,24 @@
     <t>CÔNG TY TNHH THƯƠNG MẠI - XÂY DỰNG THIÊN HÀ PHÁT</t>
   </si>
   <si>
+    <t>10810584</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ TUYẾT VÂN</t>
+  </si>
+  <si>
+    <t>1200000857</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DANH PHÁT</t>
+  </si>
+  <si>
     <t>1200000859</t>
   </si>
   <si>
     <t>CÔNG TY TNHH MỘT THÀNH VIÊN SẢN XUẤT THƯƠNG MẠI LOUIS PHƯỚC THẠNH</t>
   </si>
   <si>
-    <t>10810584</t>
-  </si>
-  <si>
-    <t>TRẦN THỊ TUYẾT VÂN</t>
-  </si>
-  <si>
     <t>1200000864</t>
   </si>
   <si>
@@ -504,58 +510,283 @@
     <t>CÔNG TY TNHH AN THỊNH FURNITURE</t>
   </si>
   <si>
+    <t>1200000993</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH BAO BÌ SAHA DHARAWAT</t>
+  </si>
+  <si>
+    <t>1200001011</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐÔNG NGÔ MANUFACTURER</t>
+  </si>
+  <si>
+    <t>10400773</t>
+  </si>
+  <si>
+    <t>VŨ ANH HAI</t>
+  </si>
+  <si>
+    <t>1200001029</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TRANG TRÍ NỘI THẤT PHONG THẢO</t>
+  </si>
+  <si>
+    <t>1200001030</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI - SẢN XUẤT VÀ XÂY DỰNG PALOMA</t>
+  </si>
+  <si>
+    <t>1200001038</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÚ MỸ THĂNG</t>
+  </si>
+  <si>
+    <t>1200001041</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI XÂY DỰNG THIÊN PHÚ DECOR</t>
+  </si>
+  <si>
+    <t>1200001042</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KIẾN TRÚC GỖ BỌC ĐÔ</t>
+  </si>
+  <si>
+    <t>1200001051</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VINAWOOD</t>
+  </si>
+  <si>
+    <t>10999776</t>
+  </si>
+  <si>
+    <t>ĐẶNG VĂN CHỈ</t>
+  </si>
+  <si>
+    <t>1200001056</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI THANH THANH LIÊM</t>
+  </si>
+  <si>
+    <t>1200001062</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BOHO CORPORATION</t>
+  </si>
+  <si>
+    <t>1200001065</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ TÂN LÂM</t>
+  </si>
+  <si>
+    <t>1200001072</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN KIM CHI</t>
+  </si>
+  <si>
+    <t>1200001073</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN HÓA CHẤT WASHIN VIỆT NAM</t>
+  </si>
+  <si>
+    <t>1200001077</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SX TM QUANG TRUNG NGUYÊN</t>
+  </si>
+  <si>
+    <t>10110766</t>
+  </si>
+  <si>
+    <t>PHẠM MINH SĨ</t>
+  </si>
+  <si>
+    <t>1200001079</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI - XÂY DỰNG HUY HƯNG</t>
+  </si>
+  <si>
+    <t>1200001084</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SX TM DV SƠN MIỀN TÂY</t>
+  </si>
+  <si>
+    <t>1200001087</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SX-TM SÀI GÒN RIVER VIỆT NAM</t>
+  </si>
+  <si>
+    <t>1200001092</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH HỒNG LUÂN 3</t>
+  </si>
+  <si>
+    <t>1200001094</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM SẢN XUẤT XNK NỘI THẤT MCS</t>
+  </si>
+  <si>
+    <t>1200001109</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ XÂY DỰNG THIÊN ĐỊNH</t>
+  </si>
+  <si>
+    <t>1200001113</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN XD SX TM DV AB</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>1200001114</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI TUÝP NHÔM THUẬN QUÂN</t>
+  </si>
+  <si>
+    <t>1200001118</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Thắng</t>
+  </si>
+  <si>
+    <t>1200001119</t>
+  </si>
+  <si>
+    <t>VŨ ĐÌNH DŨNG</t>
+  </si>
+  <si>
+    <t>1200001121</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH OHAHA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>1200001123</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SƠN TÀI TRÍ</t>
+  </si>
+  <si>
+    <t>1200001124</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MTV HOÀNG MINH TUẤN</t>
+  </si>
+  <si>
+    <t>1200001125</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH TRẦN QUÝ</t>
+  </si>
+  <si>
+    <t>1200001137</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT &amp; DỊCH VỤ BEST GOODS</t>
+  </si>
+  <si>
+    <t>1200000854</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TRẦN LIÊN HƯNG</t>
+  </si>
+  <si>
+    <t>1200000856</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN AN PHÚ</t>
+  </si>
+  <si>
+    <t>1200000863</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH Thương Mại Tổng Hợp Dũng Lý</t>
+  </si>
+  <si>
     <t>1200000974</t>
   </si>
   <si>
     <t>CÔNG TY TNHH CAO VÕ</t>
   </si>
   <si>
-    <t>1200000993</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH BAO BÌ SAHA DHARAWAT</t>
-  </si>
-  <si>
-    <t>1200001011</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN ĐÔNG NGÔ MANUFACTURER</t>
-  </si>
-  <si>
-    <t>10400773</t>
-  </si>
-  <si>
-    <t>VŨ ANH HAI</t>
-  </si>
-  <si>
-    <t>1200001029</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TRANG TRÍ NỘI THẤT PHONG THẢO</t>
-  </si>
-  <si>
-    <t>1200001030</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI - SẢN XUẤT VÀ XÂY DỰNG PALOMA</t>
-  </si>
-  <si>
-    <t>1200001038</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÚ MỸ THĂNG</t>
-  </si>
-  <si>
-    <t>1200001041</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI XÂY DỰNG THIÊN PHÚ DECOR</t>
-  </si>
-  <si>
-    <t>1200001042</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH KIẾN TRÚC GỖ BỌC ĐÔ</t>
+    <t>1200001004</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN XÂY DỰNG - THƯƠNG MẠI VÀ DỊCH VỤ HOÀNG GIA</t>
+  </si>
+  <si>
+    <t>1200001128</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN MỘT THÀNH VIÊN SẢN XUẤT THƯƠNG MẠI NỘI THẤT TIẾN DŨNG PHÁT</t>
+  </si>
+  <si>
+    <t>1200000861</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XÂY DỰNG VÀ THƯƠNG MẠI AN PHỤNG</t>
+  </si>
+  <si>
+    <t>1200001023</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI - DỊCH VỤ - XÂY DỰNG MAI TÂM</t>
+  </si>
+  <si>
+    <t>1200001098</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN PYRAMID DECOR</t>
+  </si>
+  <si>
+    <t>1200000054</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH Xây Dựng Ngô Gia</t>
+  </si>
+  <si>
+    <t>1200000820</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT NỘI THẤT TRẦN TIẾN</t>
+  </si>
+  <si>
+    <t>1200000983</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SAO MAI TT</t>
+  </si>
+  <si>
+    <t>1200000992</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH DV KT AN TÂM PHÁT</t>
+  </si>
+  <si>
+    <t>1200001027</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TTK FURNITURE</t>
   </si>
   <si>
     <t>1200001045</t>
@@ -564,223 +795,10 @@
     <t>CÔNG TY TNHH CHỐNG THẤM TRẦN PHƯƠNG</t>
   </si>
   <si>
-    <t>1200001051</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH VINAWOOD</t>
-  </si>
-  <si>
-    <t>10999776</t>
-  </si>
-  <si>
-    <t>ĐẶNG VĂN CHỈ</t>
-  </si>
-  <si>
-    <t>1200001056</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI THANH THANH LIÊM</t>
-  </si>
-  <si>
-    <t>1200001062</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN BOHO CORPORATION</t>
-  </si>
-  <si>
-    <t>1200001065</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ TÂN LÂM</t>
-  </si>
-  <si>
-    <t>1200001072</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN KIM CHI</t>
-  </si>
-  <si>
-    <t>1200001073</t>
-  </si>
-  <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN HÓA CHẤT WASHIN VIỆT NAM</t>
-  </si>
-  <si>
-    <t>1200001077</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SX TM QUANG TRUNG NGUYÊN</t>
-  </si>
-  <si>
-    <t>10110766</t>
-  </si>
-  <si>
-    <t>PHẠM MINH SĨ</t>
-  </si>
-  <si>
-    <t>1200001079</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI - XÂY DỰNG HUY HƯNG</t>
-  </si>
-  <si>
-    <t>1200001084</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SX TM DV SƠN MIỀN TÂY</t>
-  </si>
-  <si>
-    <t>1200001087</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SX-TM SÀI GÒN RIVER VIỆT NAM</t>
-  </si>
-  <si>
-    <t>1200001092</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH HỒNG LUÂN 3</t>
-  </si>
-  <si>
-    <t>1200001094</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TM SẢN XUẤT XNK NỘI THẤT MCS</t>
-  </si>
-  <si>
-    <t>1200001109</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ XÂY DỰNG THIÊN ĐỊNH</t>
-  </si>
-  <si>
-    <t>1200001113</t>
-  </si>
-  <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN XD SX TM DV AB</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>1200001114</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI TUÝP NHÔM THUẬN QUÂN</t>
-  </si>
-  <si>
-    <t>1200001118</t>
-  </si>
-  <si>
-    <t>Bao Thanh Toàn</t>
-  </si>
-  <si>
-    <t>1200001119</t>
-  </si>
-  <si>
-    <t>VŨ ĐÌNH DŨNG</t>
-  </si>
-  <si>
-    <t>1200001121</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH OHAHA VIỆT NAM</t>
-  </si>
-  <si>
-    <t>1200001123</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SƠN TÀI TRÍ</t>
-  </si>
-  <si>
-    <t>1200001124</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MTV HOÀNG MINH TUẤN</t>
-  </si>
-  <si>
-    <t>1200001125</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH TRẦN QUÝ</t>
-  </si>
-  <si>
-    <t>1200000854</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TRẦN LIÊN HƯNG</t>
-  </si>
-  <si>
-    <t>1200000856</t>
-  </si>
-  <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN AN PHÚ</t>
-  </si>
-  <si>
-    <t>1200000857</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DANH PHÁT</t>
-  </si>
-  <si>
-    <t>1200000863</t>
-  </si>
-  <si>
-    <t>Công Ty TNHH Thương Mại Tổng Hợp Dũng Lý</t>
-  </si>
-  <si>
-    <t>1200001004</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN XÂY DỰNG - THƯƠNG MẠI VÀ DỊCH VỤ HOÀNG GIA</t>
-  </si>
-  <si>
-    <t>1200001128</t>
-  </si>
-  <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN MỘT THÀNH VIÊN SẢN XUẤT THƯƠNG MẠI NỘI THẤT TIẾN DŨNG PHÁT</t>
-  </si>
-  <si>
-    <t>1200000861</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH XÂY DỰNG VÀ THƯƠNG MẠI AN PHỤNG</t>
-  </si>
-  <si>
-    <t>1200001023</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI - DỊCH VỤ - XÂY DỰNG MAI TÂM</t>
-  </si>
-  <si>
-    <t>1200001098</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN PYRAMID DECOR</t>
-  </si>
-  <si>
-    <t>1200000054</t>
-  </si>
-  <si>
-    <t>Công Ty TNHH Xây Dựng Ngô Gia</t>
-  </si>
-  <si>
-    <t>1200000820</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT NỘI THẤT TRẦN TIẾN</t>
-  </si>
-  <si>
-    <t>1200000983</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SAO MAI TT</t>
-  </si>
-  <si>
-    <t>1200000992</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH DV KT AN TÂM PHÁT</t>
+    <t>1200001060</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XÂY DỰNG - NỘI THẤT TRUNG ĐÔ</t>
   </si>
   <si>
     <t>Company Code</t>
@@ -1202,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y105"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1248,7 @@
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
@@ -1238,79 +1256,79 @@
   <sheetData>
     <row r="1" spans="1:25" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -2139,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>0</v>
+        <v>52122528</v>
       </c>
       <c r="T12" s="2">
         <v>45015048</v>
@@ -2157,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="2">
-        <v>45015048</v>
+        <v>97137576</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -2370,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>0</v>
+        <v>187025552</v>
       </c>
       <c r="T15" s="2">
-        <v>0</v>
+        <v>2480653956</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -2388,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="2">
-        <v>0</v>
+        <v>2667679508</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -2524,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>242869536</v>
+        <v>326137536</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
@@ -2542,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="2">
-        <v>242869536</v>
+        <v>326137536</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -2755,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>337672800</v>
       </c>
       <c r="T20" s="2">
         <v>205680816</v>
@@ -2773,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="2">
-        <v>205680816</v>
+        <v>543353616</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -3913,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="2">
-        <v>0</v>
+        <v>1000369925</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
@@ -3928,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="2">
-        <v>0</v>
+        <v>1000369925</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -3963,7 +3981,7 @@
         <v>9</v>
       </c>
       <c r="K36" s="2">
-        <v>86742058</v>
+        <v>140520442</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -3981,13 +3999,13 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <v>86742058</v>
+        <v>140520442</v>
       </c>
       <c r="R36" s="2">
         <v>0</v>
       </c>
       <c r="S36" s="2">
-        <v>0</v>
+        <v>30137184</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
@@ -4005,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="2">
-        <v>0</v>
+        <v>30137184</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -4295,10 +4313,10 @@
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <v>0</v>
+        <v>8891722</v>
       </c>
       <c r="T40" s="2">
-        <v>0</v>
+        <v>4363375</v>
       </c>
       <c r="U40" s="2">
         <v>0</v>
@@ -4313,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="2">
-        <v>0</v>
+        <v>13255097</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -4529,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="2">
-        <v>22862699</v>
+        <v>322862699</v>
       </c>
       <c r="U43" s="2">
         <v>77137301</v>
@@ -4544,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="2">
-        <v>100000000</v>
+        <v>400000000</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -4869,19 +4887,19 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="G48" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="H48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J48" t="s">
         <v>9</v>
@@ -4890,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="2">
-        <v>0</v>
+        <v>-458131</v>
       </c>
       <c r="M48" s="2">
         <v>0</v>
@@ -4902,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="2">
-        <v>25628426</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="2">
-        <v>25628426</v>
+        <v>-458131</v>
       </c>
       <c r="R48" s="2">
         <v>0</v>
@@ -4949,10 +4967,10 @@
         <v>126</v>
       </c>
       <c r="F49" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G49" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="H49" t="s">
         <v>137</v>
@@ -4967,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="2">
-        <v>46920692</v>
+        <v>0</v>
       </c>
       <c r="M49" s="2">
-        <v>31635180</v>
+        <v>0</v>
       </c>
       <c r="N49" s="2">
         <v>0</v>
@@ -4979,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="2">
-        <v>0</v>
+        <v>25628426</v>
       </c>
       <c r="Q49" s="2">
-        <v>78555872</v>
+        <v>25628426</v>
       </c>
       <c r="R49" s="2">
         <v>0</v>
@@ -5023,13 +5041,13 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H50" t="s">
         <v>139</v>
@@ -5041,16 +5059,16 @@
         <v>9</v>
       </c>
       <c r="K50" s="2">
-        <v>38598624</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2">
-        <v>0</v>
+        <v>46920692</v>
       </c>
       <c r="M50" s="2">
-        <v>5064037</v>
+        <v>31635180</v>
       </c>
       <c r="N50" s="2">
-        <v>42755331</v>
+        <v>0</v>
       </c>
       <c r="O50" s="2">
         <v>0</v>
@@ -5059,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="2">
-        <v>86417992</v>
+        <v>78555872</v>
       </c>
       <c r="R50" s="2">
         <v>0</v>
@@ -5068,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="T50" s="2">
-        <v>0</v>
+        <v>32164000</v>
       </c>
       <c r="U50" s="2">
         <v>0</v>
@@ -5083,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="2">
-        <v>0</v>
+        <v>32164000</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -5094,40 +5112,40 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
       <c r="E51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" t="s">
         <v>141</v>
       </c>
-      <c r="F51" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>142</v>
       </c>
-      <c r="I51" t="s">
-        <v>143</v>
-      </c>
       <c r="J51" t="s">
         <v>9</v>
       </c>
       <c r="K51" s="2">
-        <v>0</v>
+        <v>38598624</v>
       </c>
       <c r="L51" s="2">
-        <v>16200000</v>
+        <v>0</v>
       </c>
       <c r="M51" s="2">
-        <v>0</v>
+        <v>5064037</v>
       </c>
       <c r="N51" s="2">
-        <v>0</v>
+        <v>42755331</v>
       </c>
       <c r="O51" s="2">
         <v>0</v>
@@ -5136,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="2">
-        <v>16200000</v>
+        <v>86417992</v>
       </c>
       <c r="R51" s="2">
         <v>0</v>
@@ -5177,7 +5195,7 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F52" t="s">
         <v>67</v>
@@ -5195,16 +5213,16 @@
         <v>9</v>
       </c>
       <c r="K52" s="2">
-        <v>7614000</v>
+        <v>0</v>
       </c>
       <c r="L52" s="2">
-        <v>17252784</v>
+        <v>16200000</v>
       </c>
       <c r="M52" s="2">
-        <v>20758113</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2">
-        <v>1683071</v>
+        <v>0</v>
       </c>
       <c r="O52" s="2">
         <v>0</v>
@@ -5213,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="2">
-        <v>47307968</v>
+        <v>16200000</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
@@ -5248,19 +5266,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="F53" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="G53" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="H53" t="s">
         <v>146</v>
@@ -5272,16 +5290,16 @@
         <v>9</v>
       </c>
       <c r="K53" s="2">
-        <v>0</v>
+        <v>7614000</v>
       </c>
       <c r="L53" s="2">
-        <v>27843048</v>
+        <v>17252784</v>
       </c>
       <c r="M53" s="2">
-        <v>0</v>
+        <v>20758113</v>
       </c>
       <c r="N53" s="2">
-        <v>0</v>
+        <v>1683071</v>
       </c>
       <c r="O53" s="2">
         <v>0</v>
@@ -5290,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="2">
-        <v>27843048</v>
+        <v>47307968</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
@@ -5299,13 +5317,13 @@
         <v>0</v>
       </c>
       <c r="T53" s="2">
-        <v>0</v>
+        <v>23316929</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
       </c>
       <c r="V53" s="2">
-        <v>0</v>
+        <v>1683071</v>
       </c>
       <c r="W53" s="2">
         <v>0</v>
@@ -5314,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="2">
-        <v>0</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -5334,10 +5352,10 @@
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H54" t="s">
         <v>148</v>
@@ -5349,10 +5367,10 @@
         <v>9</v>
       </c>
       <c r="K54" s="2">
-        <v>301747680</v>
+        <v>0</v>
       </c>
       <c r="L54" s="2">
-        <v>0</v>
+        <v>27843048</v>
       </c>
       <c r="M54" s="2">
         <v>0</v>
@@ -5367,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="2">
-        <v>301747680</v>
+        <v>27843048</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
@@ -5402,19 +5420,19 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
         <v>150</v>
@@ -5426,7 +5444,7 @@
         <v>9</v>
       </c>
       <c r="K55" s="2">
-        <v>3082752</v>
+        <v>301747680</v>
       </c>
       <c r="L55" s="2">
         <v>0</v>
@@ -5444,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="2">
-        <v>3082752</v>
+        <v>301747680</v>
       </c>
       <c r="R55" s="2">
         <v>0</v>
@@ -5479,19 +5497,19 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="H56" t="s">
         <v>152</v>
@@ -5503,10 +5521,10 @@
         <v>9</v>
       </c>
       <c r="K56" s="2">
-        <v>0</v>
+        <v>3082752</v>
       </c>
       <c r="L56" s="2">
-        <v>125712000</v>
+        <v>0</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
@@ -5521,13 +5539,13 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <v>125712000</v>
+        <v>3082752</v>
       </c>
       <c r="R56" s="2">
         <v>0</v>
       </c>
       <c r="S56" s="2">
-        <v>125712000</v>
+        <v>0</v>
       </c>
       <c r="T56" s="2">
         <v>0</v>
@@ -5545,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="2">
-        <v>125712000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -5565,10 +5583,10 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s">
         <v>154</v>
@@ -5583,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="2">
-        <v>4007664</v>
+        <v>125712000</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
@@ -5598,13 +5616,13 @@
         <v>0</v>
       </c>
       <c r="Q57" s="2">
-        <v>4007664</v>
+        <v>125712000</v>
       </c>
       <c r="R57" s="2">
         <v>0</v>
       </c>
       <c r="S57" s="2">
-        <v>0</v>
+        <v>125712000</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
@@ -5622,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="2">
-        <v>0</v>
+        <v>125712000</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
@@ -5633,19 +5651,19 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="H58" t="s">
         <v>156</v>
@@ -5660,10 +5678,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="2">
-        <v>53879466</v>
+        <v>4007664</v>
       </c>
       <c r="M58" s="2">
-        <v>18700310</v>
+        <v>0</v>
       </c>
       <c r="N58" s="2">
         <v>0</v>
@@ -5675,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="2">
-        <v>72579776</v>
+        <v>4007664</v>
       </c>
       <c r="R58" s="2">
         <v>0</v>
@@ -5687,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="2">
-        <v>18700310</v>
+        <v>0</v>
       </c>
       <c r="V58" s="2">
         <v>0</v>
@@ -5699,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="2">
-        <v>18700310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
@@ -5710,19 +5728,19 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="G59" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="H59" t="s">
         <v>158</v>
@@ -5734,13 +5752,13 @@
         <v>9</v>
       </c>
       <c r="K59" s="2">
-        <v>5769792</v>
+        <v>0</v>
       </c>
       <c r="L59" s="2">
-        <v>0</v>
+        <v>53879466</v>
       </c>
       <c r="M59" s="2">
-        <v>0</v>
+        <v>18700310</v>
       </c>
       <c r="N59" s="2">
         <v>0</v>
@@ -5752,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="2">
-        <v>5769792</v>
+        <v>72579776</v>
       </c>
       <c r="R59" s="2">
         <v>0</v>
@@ -5764,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="2">
-        <v>0</v>
+        <v>18700310</v>
       </c>
       <c r="V59" s="2">
         <v>0</v>
@@ -5776,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="2">
-        <v>0</v>
+        <v>18700310</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -5787,19 +5805,19 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="H60" t="s">
         <v>160</v>
@@ -5811,25 +5829,25 @@
         <v>9</v>
       </c>
       <c r="K60" s="2">
-        <v>0</v>
+        <v>5769792</v>
       </c>
       <c r="L60" s="2">
         <v>0</v>
       </c>
       <c r="M60" s="2">
-        <v>-913478</v>
+        <v>0</v>
       </c>
       <c r="N60" s="2">
-        <v>-96699</v>
+        <v>0</v>
       </c>
       <c r="O60" s="2">
-        <v>-40971</v>
+        <v>0</v>
       </c>
       <c r="P60" s="2">
         <v>0</v>
       </c>
       <c r="Q60" s="2">
-        <v>-1051148</v>
+        <v>5769792</v>
       </c>
       <c r="R60" s="2">
         <v>0</v>
@@ -6104,10 +6122,10 @@
         <v>109</v>
       </c>
       <c r="F64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H64" t="s">
         <v>168</v>
@@ -6480,19 +6498,19 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
         <v>178</v>
@@ -6504,10 +6522,10 @@
         <v>9</v>
       </c>
       <c r="K69" s="2">
-        <v>0</v>
+        <v>214508200</v>
       </c>
       <c r="L69" s="2">
-        <v>10584000</v>
+        <v>120938000</v>
       </c>
       <c r="M69" s="2">
         <v>0</v>
@@ -6522,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="Q69" s="2">
-        <v>10584000</v>
+        <v>335446200</v>
       </c>
       <c r="R69" s="2">
         <v>0</v>
@@ -6531,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="T69" s="2">
-        <v>0</v>
+        <v>120938000</v>
       </c>
       <c r="U69" s="2">
         <v>0</v>
@@ -6546,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="2">
-        <v>0</v>
+        <v>120938000</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
@@ -6566,25 +6584,25 @@
         <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="H70" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J70" t="s">
         <v>9</v>
       </c>
       <c r="K70" s="2">
-        <v>214508200</v>
+        <v>45515952</v>
       </c>
       <c r="L70" s="2">
-        <v>120938000</v>
+        <v>49514112</v>
       </c>
       <c r="M70" s="2">
         <v>0</v>
@@ -6599,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="2">
-        <v>335446200</v>
+        <v>95030064</v>
       </c>
       <c r="R70" s="2">
         <v>0</v>
@@ -6608,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="T70" s="2">
-        <v>0</v>
+        <v>49514112</v>
       </c>
       <c r="U70" s="2">
         <v>0</v>
@@ -6623,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="Y70" s="2">
-        <v>0</v>
+        <v>49514112</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
@@ -6643,10 +6661,10 @@
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s">
         <v>184</v>
@@ -6658,10 +6676,10 @@
         <v>9</v>
       </c>
       <c r="K71" s="2">
-        <v>45515952</v>
+        <v>385097544</v>
       </c>
       <c r="L71" s="2">
-        <v>49514112</v>
+        <v>0</v>
       </c>
       <c r="M71" s="2">
         <v>0</v>
@@ -6676,13 +6694,13 @@
         <v>0</v>
       </c>
       <c r="Q71" s="2">
-        <v>95030064</v>
+        <v>385097544</v>
       </c>
       <c r="R71" s="2">
         <v>0</v>
       </c>
       <c r="S71" s="2">
-        <v>0</v>
+        <v>301792824</v>
       </c>
       <c r="T71" s="2">
         <v>0</v>
@@ -6700,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="2">
-        <v>0</v>
+        <v>301792824</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
@@ -6711,19 +6729,19 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="G72" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="H72" t="s">
         <v>186</v>
@@ -6735,7 +6753,7 @@
         <v>9</v>
       </c>
       <c r="K72" s="2">
-        <v>385097544</v>
+        <v>8519043</v>
       </c>
       <c r="L72" s="2">
         <v>0</v>
@@ -6744,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="2">
-        <v>0</v>
+        <v>54470499</v>
       </c>
       <c r="O72" s="2">
         <v>0</v>
@@ -6753,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="Q72" s="2">
-        <v>385097544</v>
+        <v>62989542</v>
       </c>
       <c r="R72" s="2">
         <v>0</v>
       </c>
       <c r="S72" s="2">
-        <v>162010800</v>
+        <v>0</v>
       </c>
       <c r="T72" s="2">
         <v>0</v>
@@ -6777,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="Y72" s="2">
-        <v>162010800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -6797,10 +6815,10 @@
         <v>109</v>
       </c>
       <c r="F73" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="G73" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="H73" t="s">
         <v>188</v>
@@ -6812,7 +6830,7 @@
         <v>9</v>
       </c>
       <c r="K73" s="2">
-        <v>8519043</v>
+        <v>79711582</v>
       </c>
       <c r="L73" s="2">
         <v>0</v>
@@ -6821,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="N73" s="2">
-        <v>54470499</v>
+        <v>0</v>
       </c>
       <c r="O73" s="2">
         <v>0</v>
@@ -6830,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="Q73" s="2">
-        <v>62989542</v>
+        <v>79711582</v>
       </c>
       <c r="R73" s="2">
         <v>0</v>
@@ -6865,19 +6883,19 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="G74" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="H74" t="s">
         <v>190</v>
@@ -6889,7 +6907,7 @@
         <v>9</v>
       </c>
       <c r="K74" s="2">
-        <v>79711582</v>
+        <v>98496000</v>
       </c>
       <c r="L74" s="2">
         <v>0</v>
@@ -6907,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="Q74" s="2">
-        <v>79711582</v>
+        <v>98496000</v>
       </c>
       <c r="R74" s="2">
         <v>0</v>
@@ -6951,10 +6969,10 @@
         <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="H75" t="s">
         <v>192</v>
@@ -6966,10 +6984,10 @@
         <v>9</v>
       </c>
       <c r="K75" s="2">
-        <v>98496000</v>
+        <v>0</v>
       </c>
       <c r="L75" s="2">
-        <v>0</v>
+        <v>352080</v>
       </c>
       <c r="M75" s="2">
         <v>0</v>
@@ -6984,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="Q75" s="2">
-        <v>98496000</v>
+        <v>352080</v>
       </c>
       <c r="R75" s="2">
         <v>0</v>
@@ -7028,16 +7046,16 @@
         <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H76" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I76" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J76" t="s">
         <v>9</v>
@@ -7046,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="2">
-        <v>352080</v>
+        <v>30039120</v>
       </c>
       <c r="M76" s="2">
         <v>0</v>
@@ -7061,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="Q76" s="2">
-        <v>352080</v>
+        <v>30039120</v>
       </c>
       <c r="R76" s="2">
         <v>0</v>
@@ -7096,34 +7114,34 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="H77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I77" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J77" t="s">
         <v>9</v>
       </c>
       <c r="K77" s="2">
-        <v>0</v>
+        <v>20520025</v>
       </c>
       <c r="L77" s="2">
-        <v>30039120</v>
+        <v>0</v>
       </c>
       <c r="M77" s="2">
         <v>0</v>
@@ -7138,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="Q77" s="2">
-        <v>30039120</v>
+        <v>20520025</v>
       </c>
       <c r="R77" s="2">
         <v>0</v>
@@ -7179,13 +7197,13 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F78" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G78" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H78" t="s">
         <v>198</v>
@@ -7197,7 +7215,7 @@
         <v>9</v>
       </c>
       <c r="K78" s="2">
-        <v>20520025</v>
+        <v>8973326</v>
       </c>
       <c r="L78" s="2">
         <v>0</v>
@@ -7215,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="2">
-        <v>20520025</v>
+        <v>8973326</v>
       </c>
       <c r="R78" s="2">
         <v>0</v>
@@ -7250,19 +7268,19 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="H79" t="s">
         <v>200</v>
@@ -7274,7 +7292,7 @@
         <v>9</v>
       </c>
       <c r="K79" s="2">
-        <v>8973326</v>
+        <v>465127246</v>
       </c>
       <c r="L79" s="2">
         <v>0</v>
@@ -7292,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="2">
-        <v>8973326</v>
+        <v>465127246</v>
       </c>
       <c r="R79" s="2">
         <v>0</v>
@@ -7327,19 +7345,19 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="H80" t="s">
         <v>202</v>
@@ -7351,10 +7369,10 @@
         <v>9</v>
       </c>
       <c r="K80" s="2">
-        <v>465127246</v>
+        <v>0</v>
       </c>
       <c r="L80" s="2">
-        <v>0</v>
+        <v>15582617</v>
       </c>
       <c r="M80" s="2">
         <v>0</v>
@@ -7366,10 +7384,10 @@
         <v>0</v>
       </c>
       <c r="P80" s="2">
-        <v>0</v>
+        <v>26181387</v>
       </c>
       <c r="Q80" s="2">
-        <v>465127246</v>
+        <v>41764004</v>
       </c>
       <c r="R80" s="2">
         <v>0</v>
@@ -7390,10 +7408,10 @@
         <v>0</v>
       </c>
       <c r="X80" s="2">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="Y80" s="2">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
@@ -7404,19 +7422,19 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="H81" t="s">
         <v>204</v>
@@ -7428,10 +7446,10 @@
         <v>9</v>
       </c>
       <c r="K81" s="2">
-        <v>0</v>
+        <v>63435744</v>
       </c>
       <c r="L81" s="2">
-        <v>15582617</v>
+        <v>47340720</v>
       </c>
       <c r="M81" s="2">
         <v>0</v>
@@ -7443,10 +7461,10 @@
         <v>0</v>
       </c>
       <c r="P81" s="2">
-        <v>26181387</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="2">
-        <v>41764004</v>
+        <v>110776464</v>
       </c>
       <c r="R81" s="2">
         <v>0</v>
@@ -7467,10 +7485,10 @@
         <v>0</v>
       </c>
       <c r="X81" s="2">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="2">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
@@ -7481,19 +7499,19 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="H82" t="s">
         <v>206</v>
@@ -7505,13 +7523,13 @@
         <v>9</v>
       </c>
       <c r="K82" s="2">
-        <v>63435744</v>
+        <v>0</v>
       </c>
       <c r="L82" s="2">
-        <v>47340720</v>
+        <v>88387729</v>
       </c>
       <c r="M82" s="2">
-        <v>0</v>
+        <v>25889399</v>
       </c>
       <c r="N82" s="2">
         <v>0</v>
@@ -7523,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="2">
-        <v>110776464</v>
+        <v>114277128</v>
       </c>
       <c r="R82" s="2">
         <v>0</v>
@@ -7532,10 +7550,10 @@
         <v>0</v>
       </c>
       <c r="T82" s="2">
-        <v>0</v>
+        <v>8882312</v>
       </c>
       <c r="U82" s="2">
-        <v>0</v>
+        <v>17007688</v>
       </c>
       <c r="V82" s="2">
         <v>0</v>
@@ -7547,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="Y82" s="2">
-        <v>0</v>
+        <v>25890000</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
@@ -7567,10 +7585,10 @@
         <v>104</v>
       </c>
       <c r="F83" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="H83" t="s">
         <v>208</v>
@@ -7585,10 +7603,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="2">
-        <v>88387729</v>
+        <v>0</v>
       </c>
       <c r="M83" s="2">
-        <v>25889399</v>
+        <v>0</v>
       </c>
       <c r="N83" s="2">
         <v>0</v>
@@ -7600,19 +7618,19 @@
         <v>0</v>
       </c>
       <c r="Q83" s="2">
-        <v>114277128</v>
+        <v>0</v>
       </c>
       <c r="R83" s="2">
-        <v>0</v>
+        <v>25568972</v>
       </c>
       <c r="S83" s="2">
         <v>0</v>
       </c>
       <c r="T83" s="2">
-        <v>8882312</v>
+        <v>0</v>
       </c>
       <c r="U83" s="2">
-        <v>17007688</v>
+        <v>0</v>
       </c>
       <c r="V83" s="2">
         <v>0</v>
@@ -7624,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="Y83" s="2">
-        <v>25890000</v>
+        <v>25568972</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
@@ -7635,31 +7653,31 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="F84" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="H84" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J84" t="s">
         <v>9</v>
       </c>
       <c r="K84" s="2">
-        <v>0</v>
+        <v>78675840</v>
       </c>
       <c r="L84" s="2">
         <v>0</v>
@@ -7677,10 +7695,10 @@
         <v>0</v>
       </c>
       <c r="Q84" s="2">
-        <v>0</v>
+        <v>78675840</v>
       </c>
       <c r="R84" s="2">
-        <v>25568972</v>
+        <v>0</v>
       </c>
       <c r="S84" s="2">
         <v>0</v>
@@ -7701,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="Y84" s="2">
-        <v>25568972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
@@ -7712,19 +7730,19 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="H85" t="s">
         <v>213</v>
@@ -7736,7 +7754,7 @@
         <v>9</v>
       </c>
       <c r="K85" s="2">
-        <v>78675840</v>
+        <v>380816</v>
       </c>
       <c r="L85" s="2">
         <v>0</v>
@@ -7754,13 +7772,13 @@
         <v>0</v>
       </c>
       <c r="Q85" s="2">
-        <v>78675840</v>
+        <v>380816</v>
       </c>
       <c r="R85" s="2">
-        <v>0</v>
+        <v>142724</v>
       </c>
       <c r="S85" s="2">
-        <v>0</v>
+        <v>209650</v>
       </c>
       <c r="T85" s="2">
         <v>0</v>
@@ -7778,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="Y85" s="2">
-        <v>0</v>
+        <v>352374</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
@@ -7795,13 +7813,13 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F86" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G86" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H86" t="s">
         <v>215</v>
@@ -7813,7 +7831,7 @@
         <v>9</v>
       </c>
       <c r="K86" s="2">
-        <v>380816</v>
+        <v>20646584</v>
       </c>
       <c r="L86" s="2">
         <v>0</v>
@@ -7831,13 +7849,13 @@
         <v>0</v>
       </c>
       <c r="Q86" s="2">
-        <v>380816</v>
+        <v>20646584</v>
       </c>
       <c r="R86" s="2">
         <v>0</v>
       </c>
       <c r="S86" s="2">
-        <v>209650</v>
+        <v>0</v>
       </c>
       <c r="T86" s="2">
         <v>0</v>
@@ -7855,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="Y86" s="2">
-        <v>209650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -7866,19 +7884,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="G87" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="H87" t="s">
         <v>217</v>
@@ -7890,7 +7908,7 @@
         <v>9</v>
       </c>
       <c r="K87" s="2">
-        <v>20646584</v>
+        <v>9515880</v>
       </c>
       <c r="L87" s="2">
         <v>0</v>
@@ -7908,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="2">
-        <v>20646584</v>
+        <v>9515880</v>
       </c>
       <c r="R87" s="2">
         <v>0</v>
@@ -7943,19 +7961,19 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F88" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="G88" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="H88" t="s">
         <v>219</v>
@@ -7967,7 +7985,7 @@
         <v>9</v>
       </c>
       <c r="K88" s="2">
-        <v>9515880</v>
+        <v>30274629</v>
       </c>
       <c r="L88" s="2">
         <v>0</v>
@@ -7985,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="Q88" s="2">
-        <v>9515880</v>
+        <v>30274629</v>
       </c>
       <c r="R88" s="2">
         <v>0</v>
@@ -8020,19 +8038,19 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="G89" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="H89" t="s">
         <v>221</v>
@@ -8044,10 +8062,10 @@
         <v>9</v>
       </c>
       <c r="K89" s="2">
-        <v>30274629</v>
+        <v>1287576</v>
       </c>
       <c r="L89" s="2">
-        <v>0</v>
+        <v>3410748</v>
       </c>
       <c r="M89" s="2">
         <v>0</v>
@@ -8062,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="2">
-        <v>30274629</v>
+        <v>4698324</v>
       </c>
       <c r="R89" s="2">
         <v>0</v>
@@ -8106,25 +8124,25 @@
         <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H90" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I90" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J90" t="s">
         <v>9</v>
       </c>
       <c r="K90" s="2">
-        <v>1287576</v>
+        <v>18107280</v>
       </c>
       <c r="L90" s="2">
-        <v>3410748</v>
+        <v>8756640</v>
       </c>
       <c r="M90" s="2">
         <v>0</v>
@@ -8139,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q90" s="2">
-        <v>4698324</v>
+        <v>26863920</v>
       </c>
       <c r="R90" s="2">
         <v>0</v>
@@ -8174,19 +8192,19 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="H91" t="s">
         <v>223</v>
@@ -8198,10 +8216,10 @@
         <v>9</v>
       </c>
       <c r="K91" s="2">
-        <v>18107280</v>
+        <v>0</v>
       </c>
       <c r="L91" s="2">
-        <v>8756640</v>
+        <v>19535655</v>
       </c>
       <c r="M91" s="2">
         <v>0</v>
@@ -8216,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Q91" s="2">
-        <v>26863920</v>
+        <v>19535655</v>
       </c>
       <c r="R91" s="2">
         <v>0</v>
@@ -8251,19 +8269,19 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="G92" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="H92" t="s">
         <v>225</v>
@@ -8275,10 +8293,10 @@
         <v>9</v>
       </c>
       <c r="K92" s="2">
-        <v>0</v>
+        <v>1647432</v>
       </c>
       <c r="L92" s="2">
-        <v>19535655</v>
+        <v>0</v>
       </c>
       <c r="M92" s="2">
         <v>0</v>
@@ -8293,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="Q92" s="2">
-        <v>19535655</v>
+        <v>1647432</v>
       </c>
       <c r="R92" s="2">
         <v>0</v>
@@ -8337,10 +8355,10 @@
         <v>126</v>
       </c>
       <c r="F93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G93" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H93" t="s">
         <v>227</v>
@@ -8414,10 +8432,10 @@
         <v>109</v>
       </c>
       <c r="F94" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G94" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H94" t="s">
         <v>229</v>
@@ -8488,13 +8506,13 @@
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F95" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G95" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H95" t="s">
         <v>231</v>
@@ -8506,10 +8524,10 @@
         <v>9</v>
       </c>
       <c r="K95" s="2">
-        <v>0</v>
+        <v>-840131</v>
       </c>
       <c r="L95" s="2">
-        <v>-458131</v>
+        <v>0</v>
       </c>
       <c r="M95" s="2">
         <v>0</v>
@@ -8524,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="Q95" s="2">
-        <v>-458131</v>
+        <v>-840131</v>
       </c>
       <c r="R95" s="2">
         <v>0</v>
@@ -8565,13 +8583,13 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F96" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G96" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H96" t="s">
         <v>233</v>
@@ -8583,28 +8601,28 @@
         <v>9</v>
       </c>
       <c r="K96" s="2">
-        <v>-840131</v>
+        <v>0</v>
       </c>
       <c r="L96" s="2">
         <v>0</v>
       </c>
       <c r="M96" s="2">
-        <v>0</v>
+        <v>-913478</v>
       </c>
       <c r="N96" s="2">
-        <v>0</v>
+        <v>-96699</v>
       </c>
       <c r="O96" s="2">
-        <v>0</v>
+        <v>-40971</v>
       </c>
       <c r="P96" s="2">
         <v>0</v>
       </c>
       <c r="Q96" s="2">
-        <v>-840131</v>
+        <v>-1051148</v>
       </c>
       <c r="R96" s="2">
-        <v>0</v>
+        <v>46587369</v>
       </c>
       <c r="S96" s="2">
         <v>0</v>
@@ -8625,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="Y96" s="2">
-        <v>0</v>
+        <v>46587369</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
@@ -8645,10 +8663,10 @@
         <v>104</v>
       </c>
       <c r="F97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G97" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H97" t="s">
         <v>235</v>
@@ -8796,7 +8814,7 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F99" t="s">
         <v>67</v>
@@ -8950,7 +8968,7 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F101" t="s">
         <v>67</v>
@@ -9184,10 +9202,10 @@
         <v>109</v>
       </c>
       <c r="F104" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G104" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H104" t="s">
         <v>249</v>
@@ -9258,7 +9276,7 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F105" t="s">
         <v>67</v>
@@ -9321,8 +9339,239 @@
         <v>29420723</v>
       </c>
     </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" t="s">
+        <v>253</v>
+      </c>
+      <c r="I106" t="s">
+        <v>254</v>
+      </c>
+      <c r="J106" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" s="2">
+        <v>6011280</v>
+      </c>
+      <c r="L106" s="2">
+        <v>0</v>
+      </c>
+      <c r="M106" s="2">
+        <v>0</v>
+      </c>
+      <c r="N106" s="2">
+        <v>0</v>
+      </c>
+      <c r="O106" s="2">
+        <v>0</v>
+      </c>
+      <c r="P106" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>6011280</v>
+      </c>
+      <c r="R106" s="2">
+        <v>0</v>
+      </c>
+      <c r="S106" s="2">
+        <v>6011280</v>
+      </c>
+      <c r="T106" s="2">
+        <v>0</v>
+      </c>
+      <c r="U106" s="2">
+        <v>0</v>
+      </c>
+      <c r="V106" s="2">
+        <v>0</v>
+      </c>
+      <c r="W106" s="2">
+        <v>0</v>
+      </c>
+      <c r="X106" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="2">
+        <v>6011280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>143</v>
+      </c>
+      <c r="F107" t="s">
+        <v>67</v>
+      </c>
+      <c r="G107" t="s">
+        <v>68</v>
+      </c>
+      <c r="H107" t="s">
+        <v>255</v>
+      </c>
+      <c r="I107" t="s">
+        <v>256</v>
+      </c>
+      <c r="J107" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="2">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2">
+        <v>10584000</v>
+      </c>
+      <c r="M107" s="2">
+        <v>0</v>
+      </c>
+      <c r="N107" s="2">
+        <v>0</v>
+      </c>
+      <c r="O107" s="2">
+        <v>0</v>
+      </c>
+      <c r="P107" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>10584000</v>
+      </c>
+      <c r="R107" s="2">
+        <v>0</v>
+      </c>
+      <c r="S107" s="2">
+        <v>0</v>
+      </c>
+      <c r="T107" s="2">
+        <v>10584000</v>
+      </c>
+      <c r="U107" s="2">
+        <v>0</v>
+      </c>
+      <c r="V107" s="2">
+        <v>0</v>
+      </c>
+      <c r="W107" s="2">
+        <v>0</v>
+      </c>
+      <c r="X107" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="2">
+        <v>10584000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108" t="s">
+        <v>44</v>
+      </c>
+      <c r="H108" t="s">
+        <v>257</v>
+      </c>
+      <c r="I108" t="s">
+        <v>258</v>
+      </c>
+      <c r="J108" t="s">
+        <v>9</v>
+      </c>
+      <c r="K108" s="2">
+        <v>13182912</v>
+      </c>
+      <c r="L108" s="2">
+        <v>0</v>
+      </c>
+      <c r="M108" s="2">
+        <v>0</v>
+      </c>
+      <c r="N108" s="2">
+        <v>0</v>
+      </c>
+      <c r="O108" s="2">
+        <v>0</v>
+      </c>
+      <c r="P108" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>13182912</v>
+      </c>
+      <c r="R108" s="2">
+        <v>0</v>
+      </c>
+      <c r="S108" s="2">
+        <v>13182912</v>
+      </c>
+      <c r="T108" s="2">
+        <v>0</v>
+      </c>
+      <c r="U108" s="2">
+        <v>0</v>
+      </c>
+      <c r="V108" s="2">
+        <v>0</v>
+      </c>
+      <c r="W108" s="2">
+        <v>0</v>
+      </c>
+      <c r="X108" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="2">
+        <v>13182912</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Y105"/>
+  <autoFilter ref="A1:Y108"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/demodata/ZRFI005.XLSX
+++ b/demodata/ZRFI005.XLSX
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$113</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="291">
   <si>
     <t>1000</t>
   </si>
@@ -30,9 +30,6 @@
     <t>1100</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN XT</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
@@ -333,9 +327,6 @@
     <t>CÔNG TY TNHH MILLENNIUM FURNITURE</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -759,18 +750,24 @@
     <t>CÔNG TY CỔ PHẦN PYRAMID DECOR</t>
   </si>
   <si>
+    <t>1200000820</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT NỘI THẤT TRẦN TIẾN</t>
+  </si>
+  <si>
+    <t>1200001059</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN XÂY DỰNG - THƯƠNG MẠI - NỘI THẤT HH</t>
+  </si>
+  <si>
     <t>1200000054</t>
   </si>
   <si>
     <t>Công Ty TNHH Xây Dựng Ngô Gia</t>
   </si>
   <si>
-    <t>1200000820</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT NỘI THẤT TRẦN TIẾN</t>
-  </si>
-  <si>
     <t>1200000983</t>
   </si>
   <si>
@@ -799,6 +796,30 @@
   </si>
   <si>
     <t>CÔNG TY TNHH XÂY DỰNG - NỘI THẤT TRUNG ĐÔ</t>
+  </si>
+  <si>
+    <t>1200000959</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ GỖ HOÀNG PHÁT</t>
+  </si>
+  <si>
+    <t>1200001139</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH WONDER STEEL</t>
+  </si>
+  <si>
+    <t>1200000920</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH DIỆP MỘC HOME</t>
+  </si>
+  <si>
+    <t>1200001138</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN I-STAR ANIMATRONIC</t>
   </si>
   <si>
     <t>Company Code</t>
@@ -1220,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:Y113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1256,79 +1277,79 @@
   <sheetData>
     <row r="1" spans="1:25" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -1338,29 +1359,29 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1415,29 +1436,29 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
+      <c r="C3">
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
       <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" s="2">
         <v>628523643</v>
@@ -1492,29 +1513,29 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
+      <c r="C4">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K4" s="2">
         <v>257644800</v>
@@ -1569,29 +1590,29 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
+      <c r="C5">
+        <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
       <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K5" s="2">
         <v>221306472</v>
@@ -1646,29 +1667,29 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
+      <c r="C6">
+        <v>11</v>
       </c>
       <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
       <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
       <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
       <c r="J6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6" s="2">
         <v>693206208</v>
@@ -1723,29 +1744,29 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
+      <c r="C7">
+        <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
       <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K7" s="2">
         <v>128287498</v>
@@ -1772,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>0</v>
+        <v>23607936</v>
       </c>
       <c r="T7" s="2">
-        <v>96958512</v>
+        <v>99390672</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -1790,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2">
-        <v>96958512</v>
+        <v>122998608</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1800,29 +1821,29 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
+      <c r="C8">
+        <v>11</v>
       </c>
       <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
       <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
       <c r="J8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8" s="2">
         <v>222221664</v>
@@ -1877,29 +1898,29 @@
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
+      <c r="C9">
+        <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
       <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
       <c r="J9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -1954,29 +1975,29 @@
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
+      <c r="C10">
+        <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
       <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
       <c r="J10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10" s="2">
         <v>578950416</v>
@@ -2031,29 +2052,29 @@
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
+      <c r="C11">
+        <v>11</v>
       </c>
       <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
       <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
       <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K11" s="2">
         <v>3126857041</v>
@@ -2108,29 +2129,29 @@
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>2</v>
+      <c r="C12">
+        <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>5</v>
       </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
       <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
         <v>35</v>
       </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
       <c r="J12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K12" s="2">
         <v>122448672</v>
@@ -2185,29 +2206,29 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>2</v>
+      <c r="C13">
+        <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
       <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
         <v>10</v>
       </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
         <v>37</v>
       </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
       <c r="J13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K13" s="2">
         <v>1154383691</v>
@@ -2262,29 +2283,29 @@
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>2</v>
+      <c r="C14">
+        <v>11</v>
       </c>
       <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>5</v>
       </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
       <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
       <c r="J14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K14" s="2">
         <v>581077023</v>
@@ -2339,29 +2360,29 @@
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>2</v>
+      <c r="C15">
+        <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
       <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
         <v>41</v>
       </c>
-      <c r="I15" t="s">
-        <v>42</v>
-      </c>
       <c r="J15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K15" s="2">
         <v>2067551138</v>
@@ -2416,29 +2437,29 @@
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>2</v>
+      <c r="C16">
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
         <v>43</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>45</v>
       </c>
-      <c r="I16" t="s">
-        <v>46</v>
-      </c>
       <c r="J16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K16" s="2">
         <v>195415200</v>
@@ -2493,29 +2514,29 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>2</v>
+      <c r="C17">
+        <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
       <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
         <v>19</v>
       </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
       <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
         <v>47</v>
       </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
       <c r="J17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K17" s="2">
         <v>722328840</v>
@@ -2570,29 +2591,29 @@
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>2</v>
+      <c r="C18">
+        <v>11</v>
       </c>
       <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
         <v>49</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>50</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>51</v>
       </c>
-      <c r="I18" t="s">
-        <v>52</v>
-      </c>
       <c r="J18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K18" s="2">
         <v>29191104</v>
@@ -2647,29 +2668,29 @@
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>2</v>
+      <c r="C19">
+        <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
       <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
         <v>53</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>54</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>55</v>
       </c>
-      <c r="I19" t="s">
-        <v>56</v>
-      </c>
       <c r="J19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K19" s="2">
         <v>648895860</v>
@@ -2724,29 +2745,29 @@
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>2</v>
+      <c r="C20">
+        <v>11</v>
       </c>
       <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
       <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
         <v>19</v>
       </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
       <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s">
         <v>57</v>
       </c>
-      <c r="I20" t="s">
-        <v>58</v>
-      </c>
       <c r="J20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" s="2">
         <v>1330627230</v>
@@ -2801,29 +2822,29 @@
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>2</v>
+      <c r="C21">
+        <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
       <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
         <v>59</v>
       </c>
-      <c r="I21" t="s">
-        <v>60</v>
-      </c>
       <c r="J21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21" s="2">
         <v>45938837</v>
@@ -2878,29 +2899,29 @@
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
-        <v>2</v>
+      <c r="C22">
+        <v>11</v>
       </c>
       <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
         <v>3</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>4</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>5</v>
       </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
       <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" t="s">
         <v>61</v>
       </c>
-      <c r="I22" t="s">
-        <v>62</v>
-      </c>
       <c r="J22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" s="2">
         <v>152904888</v>
@@ -2927,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <v>0</v>
+        <v>152904888</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
@@ -2945,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="2">
-        <v>0</v>
+        <v>152904888</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -2955,29 +2976,29 @@
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
-        <v>2</v>
+      <c r="C23">
+        <v>11</v>
       </c>
       <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
         <v>3</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>4</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>5</v>
       </c>
-      <c r="G23" t="s">
-        <v>6</v>
-      </c>
       <c r="H23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" t="s">
         <v>63</v>
       </c>
-      <c r="I23" t="s">
-        <v>64</v>
-      </c>
       <c r="J23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K23" s="2">
         <v>45681408</v>
@@ -3032,29 +3053,29 @@
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
         <v>65</v>
       </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>67</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>68</v>
       </c>
-      <c r="H24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" t="s">
-        <v>70</v>
-      </c>
       <c r="J24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K24" s="2">
         <v>31754678</v>
@@ -3109,29 +3130,29 @@
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
-        <v>65</v>
+      <c r="C25">
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
         <v>71</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>72</v>
       </c>
-      <c r="H25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" t="s">
-        <v>74</v>
-      </c>
       <c r="J25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -3186,29 +3207,29 @@
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
-        <v>2</v>
+      <c r="C26">
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s">
         <v>75</v>
       </c>
-      <c r="G26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" t="s">
-        <v>77</v>
-      </c>
       <c r="J26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -3263,29 +3284,29 @@
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
         <v>65</v>
       </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>66</v>
       </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>68</v>
-      </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K27" s="2">
         <v>17614053</v>
@@ -3340,29 +3361,29 @@
       <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
         <v>65</v>
       </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>66</v>
       </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>68</v>
-      </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K28" s="2">
         <v>6434027</v>
@@ -3417,29 +3438,29 @@
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
-        <v>2</v>
+      <c r="C29">
+        <v>11</v>
       </c>
       <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
         <v>3</v>
       </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
       <c r="F29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
         <v>49</v>
       </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K29" s="2">
         <v>622374451</v>
@@ -3494,29 +3515,29 @@
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
         <v>65</v>
       </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s">
         <v>82</v>
       </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" t="s">
-        <v>84</v>
-      </c>
       <c r="J30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K30" s="2">
         <v>3365673</v>
@@ -3543,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <v>0</v>
+        <v>3365673</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
@@ -3561,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="2">
-        <v>0</v>
+        <v>3365673</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -3571,29 +3592,29 @@
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
-        <v>2</v>
+      <c r="C31">
+        <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
       <c r="F31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" t="s">
         <v>85</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>86</v>
       </c>
-      <c r="H31" t="s">
-        <v>87</v>
-      </c>
-      <c r="I31" t="s">
-        <v>88</v>
-      </c>
       <c r="J31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -3648,29 +3669,29 @@
       <c r="B32" t="s">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
-        <v>2</v>
+      <c r="C32">
+        <v>11</v>
       </c>
       <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
         <v>3</v>
       </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
       <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
         <v>49</v>
       </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
       <c r="H32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K32" s="2">
         <v>33026443</v>
@@ -3725,29 +3746,29 @@
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
-        <v>2</v>
+      <c r="C33">
+        <v>11</v>
       </c>
       <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
         <v>3</v>
       </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
       <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
         <v>43</v>
       </c>
-      <c r="G33" t="s">
-        <v>44</v>
-      </c>
       <c r="H33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K33" s="2">
         <v>1231933018</v>
@@ -3802,29 +3823,29 @@
       <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
-        <v>2</v>
+      <c r="C34">
+        <v>11</v>
       </c>
       <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
         <v>3</v>
       </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
       <c r="F34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
         <v>49</v>
       </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
       <c r="H34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K34" s="2">
         <v>1416322800</v>
@@ -3879,29 +3900,29 @@
       <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
-        <v>2</v>
+      <c r="C35">
+        <v>11</v>
       </c>
       <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
         <v>3</v>
       </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
       <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
         <v>10</v>
       </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
       <c r="H35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K35" s="2">
         <v>4700478166</v>
@@ -3956,29 +3977,29 @@
       <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
-        <v>2</v>
+      <c r="C36">
+        <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
         <v>3</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>4</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>5</v>
       </c>
-      <c r="G36" t="s">
-        <v>6</v>
-      </c>
       <c r="H36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K36" s="2">
         <v>140520442</v>
@@ -4005,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="2">
-        <v>30137184</v>
+        <v>86742058</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
@@ -4023,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="2">
-        <v>30137184</v>
+        <v>86742058</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -4033,29 +4054,29 @@
       <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
-        <v>2</v>
+      <c r="C37">
+        <v>11</v>
       </c>
       <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
         <v>3</v>
       </c>
-      <c r="E37" t="s">
-        <v>4</v>
-      </c>
       <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
         <v>49</v>
       </c>
-      <c r="G37" t="s">
-        <v>50</v>
-      </c>
       <c r="H37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K37" s="2">
         <v>50038344</v>
@@ -4110,29 +4131,29 @@
       <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
-        <v>2</v>
+      <c r="C38">
+        <v>11</v>
       </c>
       <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
         <v>3</v>
       </c>
-      <c r="E38" t="s">
-        <v>4</v>
-      </c>
       <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
         <v>19</v>
       </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
       <c r="H38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K38" s="2">
         <v>15819840</v>
@@ -4187,29 +4208,29 @@
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" t="s">
         <v>103</v>
       </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>104</v>
       </c>
-      <c r="F39" t="s">
+      <c r="I39" t="s">
         <v>105</v>
       </c>
-      <c r="G39" t="s">
-        <v>106</v>
-      </c>
-      <c r="H39" t="s">
-        <v>107</v>
-      </c>
-      <c r="I39" t="s">
-        <v>108</v>
-      </c>
       <c r="J39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K39" s="2">
         <v>1005935</v>
@@ -4264,29 +4285,29 @@
       <c r="B40" t="s">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
-        <v>103</v>
+      <c r="C40">
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" t="s">
         <v>109</v>
       </c>
-      <c r="F40" t="s">
+      <c r="I40" t="s">
         <v>110</v>
       </c>
-      <c r="G40" t="s">
-        <v>111</v>
-      </c>
-      <c r="H40" t="s">
-        <v>112</v>
-      </c>
-      <c r="I40" t="s">
-        <v>113</v>
-      </c>
       <c r="J40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K40" s="2">
         <v>8891722</v>
@@ -4341,29 +4362,29 @@
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
-        <v>103</v>
+      <c r="C41">
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" t="s">
         <v>114</v>
       </c>
-      <c r="G41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H41" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" t="s">
-        <v>117</v>
-      </c>
       <c r="J41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K41" s="2">
         <v>4567418</v>
@@ -4418,29 +4439,29 @@
       <c r="B42" t="s">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
-        <v>103</v>
+      <c r="C42">
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" t="s">
         <v>118</v>
       </c>
-      <c r="G42" t="s">
-        <v>119</v>
-      </c>
-      <c r="H42" t="s">
-        <v>120</v>
-      </c>
-      <c r="I42" t="s">
-        <v>121</v>
-      </c>
       <c r="J42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K42" s="2">
         <v>112742224</v>
@@ -4495,29 +4516,29 @@
       <c r="B43" t="s">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
-        <v>103</v>
+      <c r="C43">
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" t="s">
         <v>119</v>
       </c>
-      <c r="H43" t="s">
-        <v>122</v>
-      </c>
       <c r="I43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K43" s="2">
         <v>506849560</v>
@@ -4572,32 +4593,32 @@
       <c r="B44" t="s">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" t="s">
         <v>103</v>
       </c>
-      <c r="D44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" t="s">
-        <v>106</v>
-      </c>
       <c r="H44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K44" s="2">
-        <v>192758984</v>
+        <v>192771431</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>
@@ -4615,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="2">
-        <v>192758984</v>
+        <v>192771431</v>
       </c>
       <c r="R44" s="2">
         <v>0</v>
       </c>
       <c r="S44" s="2">
-        <v>978989</v>
+        <v>81604033</v>
       </c>
       <c r="T44" s="2">
         <v>0</v>
@@ -4639,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="2">
-        <v>978989</v>
+        <v>81604033</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -4649,29 +4670,29 @@
       <c r="B45" t="s">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
-        <v>103</v>
+      <c r="C45">
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
@@ -4726,29 +4747,29 @@
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="C46" t="s">
-        <v>103</v>
+      <c r="C46">
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K46" s="2">
         <v>496590704</v>
@@ -4803,29 +4824,29 @@
       <c r="B47" t="s">
         <v>1</v>
       </c>
-      <c r="C47" t="s">
-        <v>103</v>
+      <c r="C47">
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K47" s="2">
         <v>411277287</v>
@@ -4880,29 +4901,29 @@
       <c r="B48" t="s">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
-        <v>103</v>
+      <c r="C48">
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" t="s">
         <v>133</v>
       </c>
-      <c r="G48" t="s">
-        <v>134</v>
-      </c>
-      <c r="H48" t="s">
-        <v>135</v>
-      </c>
-      <c r="I48" t="s">
-        <v>136</v>
-      </c>
       <c r="J48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
@@ -4957,29 +4978,29 @@
       <c r="B49" t="s">
         <v>1</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" t="s">
         <v>103</v>
       </c>
-      <c r="D49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" t="s">
-        <v>106</v>
-      </c>
       <c r="H49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
@@ -5034,29 +5055,29 @@
       <c r="B50" t="s">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
-        <v>103</v>
+      <c r="C50">
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F50" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I50" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
@@ -5111,29 +5132,29 @@
       <c r="B51" t="s">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
-        <v>103</v>
+      <c r="C51">
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F51" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K51" s="2">
         <v>38598624</v>
@@ -5188,29 +5209,29 @@
       <c r="B52" t="s">
         <v>1</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" t="s">
         <v>65</v>
       </c>
-      <c r="D52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>143</v>
-      </c>
-      <c r="F52" t="s">
-        <v>67</v>
-      </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H52" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I52" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
@@ -5265,29 +5286,29 @@
       <c r="B53" t="s">
         <v>1</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" t="s">
         <v>65</v>
       </c>
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" t="s">
         <v>143</v>
       </c>
-      <c r="F53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" t="s">
-        <v>146</v>
-      </c>
       <c r="I53" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K53" s="2">
         <v>7614000</v>
@@ -5342,29 +5363,29 @@
       <c r="B54" t="s">
         <v>1</v>
       </c>
-      <c r="C54" t="s">
-        <v>2</v>
+      <c r="C54">
+        <v>11</v>
       </c>
       <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
         <v>3</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>4</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>5</v>
       </c>
-      <c r="G54" t="s">
-        <v>6</v>
-      </c>
       <c r="H54" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
@@ -5419,29 +5440,29 @@
       <c r="B55" t="s">
         <v>1</v>
       </c>
-      <c r="C55" t="s">
-        <v>2</v>
+      <c r="C55">
+        <v>11</v>
       </c>
       <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
         <v>3</v>
       </c>
-      <c r="E55" t="s">
-        <v>4</v>
-      </c>
       <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
         <v>19</v>
       </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
       <c r="H55" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I55" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K55" s="2">
         <v>301747680</v>
@@ -5468,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="2">
-        <v>0</v>
+        <v>97662240</v>
       </c>
       <c r="T55" s="2">
         <v>0</v>
@@ -5486,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="2">
-        <v>0</v>
+        <v>97662240</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -5496,29 +5517,29 @@
       <c r="B56" t="s">
         <v>1</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" t="s">
         <v>103</v>
       </c>
-      <c r="D56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" t="s">
-        <v>106</v>
-      </c>
       <c r="H56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K56" s="2">
         <v>3082752</v>
@@ -5573,29 +5594,29 @@
       <c r="B57" t="s">
         <v>1</v>
       </c>
-      <c r="C57" t="s">
-        <v>2</v>
+      <c r="C57">
+        <v>11</v>
       </c>
       <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
         <v>3</v>
       </c>
-      <c r="E57" t="s">
-        <v>4</v>
-      </c>
       <c r="F57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s">
         <v>43</v>
       </c>
-      <c r="G57" t="s">
-        <v>44</v>
-      </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I57" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K57" s="2">
         <v>0</v>
@@ -5650,29 +5671,29 @@
       <c r="B58" t="s">
         <v>1</v>
       </c>
-      <c r="C58" t="s">
-        <v>2</v>
+      <c r="C58">
+        <v>11</v>
       </c>
       <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
         <v>3</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>4</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>5</v>
       </c>
-      <c r="G58" t="s">
-        <v>6</v>
-      </c>
       <c r="H58" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I58" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K58" s="2">
         <v>0</v>
@@ -5727,29 +5748,29 @@
       <c r="B59" t="s">
         <v>1</v>
       </c>
-      <c r="C59" t="s">
-        <v>103</v>
+      <c r="C59">
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H59" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I59" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K59" s="2">
         <v>0</v>
@@ -5804,29 +5825,29 @@
       <c r="B60" t="s">
         <v>1</v>
       </c>
-      <c r="C60" t="s">
-        <v>2</v>
+      <c r="C60">
+        <v>11</v>
       </c>
       <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
         <v>3</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>4</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>5</v>
       </c>
-      <c r="G60" t="s">
-        <v>6</v>
-      </c>
       <c r="H60" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K60" s="2">
         <v>5769792</v>
@@ -5881,29 +5902,29 @@
       <c r="B61" t="s">
         <v>1</v>
       </c>
-      <c r="C61" t="s">
-        <v>2</v>
+      <c r="C61">
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s">
         <v>43</v>
       </c>
-      <c r="G61" t="s">
-        <v>44</v>
-      </c>
       <c r="H61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I61" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K61" s="2">
         <v>0</v>
@@ -5958,29 +5979,29 @@
       <c r="B62" t="s">
         <v>1</v>
       </c>
-      <c r="C62" t="s">
-        <v>2</v>
+      <c r="C62">
+        <v>11</v>
       </c>
       <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
         <v>3</v>
       </c>
-      <c r="E62" t="s">
-        <v>4</v>
-      </c>
       <c r="F62" t="s">
+        <v>48</v>
+      </c>
+      <c r="G62" t="s">
         <v>49</v>
       </c>
-      <c r="G62" t="s">
-        <v>50</v>
-      </c>
       <c r="H62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I62" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K62" s="2">
         <v>601349270</v>
@@ -6035,29 +6056,29 @@
       <c r="B63" t="s">
         <v>1</v>
       </c>
-      <c r="C63" t="s">
-        <v>103</v>
+      <c r="C63">
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F63" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" t="s">
+        <v>164</v>
+      </c>
+      <c r="H63" t="s">
+        <v>165</v>
+      </c>
+      <c r="I63" t="s">
         <v>166</v>
       </c>
-      <c r="G63" t="s">
-        <v>167</v>
-      </c>
-      <c r="H63" t="s">
-        <v>168</v>
-      </c>
-      <c r="I63" t="s">
-        <v>169</v>
-      </c>
       <c r="J63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K63" s="2">
         <v>0</v>
@@ -6112,29 +6133,29 @@
       <c r="B64" t="s">
         <v>1</v>
       </c>
-      <c r="C64" t="s">
-        <v>103</v>
+      <c r="C64">
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G64" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H64" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I64" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K64" s="2">
         <v>0</v>
@@ -6189,29 +6210,29 @@
       <c r="B65" t="s">
         <v>1</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" t="s">
         <v>103</v>
       </c>
-      <c r="D65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" t="s">
-        <v>126</v>
-      </c>
-      <c r="F65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G65" t="s">
-        <v>106</v>
-      </c>
       <c r="H65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I65" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K65" s="2">
         <v>28814503</v>
@@ -6266,29 +6287,29 @@
       <c r="B66" t="s">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
-        <v>2</v>
+      <c r="C66">
+        <v>11</v>
       </c>
       <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
         <v>3</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>4</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>5</v>
       </c>
-      <c r="G66" t="s">
-        <v>6</v>
-      </c>
       <c r="H66" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I66" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K66" s="2">
         <v>539654400</v>
@@ -6343,29 +6364,29 @@
       <c r="B67" t="s">
         <v>1</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" t="s">
+        <v>102</v>
+      </c>
+      <c r="G67" t="s">
         <v>103</v>
       </c>
-      <c r="D67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>104</v>
-      </c>
-      <c r="F67" t="s">
-        <v>105</v>
-      </c>
-      <c r="G67" t="s">
-        <v>106</v>
-      </c>
       <c r="H67" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I67" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K67" s="2">
         <v>45263748</v>
@@ -6395,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="T67" s="2">
-        <v>0</v>
+        <v>15087915</v>
       </c>
       <c r="U67" s="2">
         <v>0</v>
@@ -6410,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="2">
-        <v>0</v>
+        <v>15087915</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
@@ -6420,29 +6441,29 @@
       <c r="B68" t="s">
         <v>1</v>
       </c>
-      <c r="C68" t="s">
-        <v>2</v>
+      <c r="C68">
+        <v>11</v>
       </c>
       <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
         <v>3</v>
       </c>
-      <c r="E68" t="s">
-        <v>4</v>
-      </c>
       <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
         <v>15</v>
       </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
       <c r="H68" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I68" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K68" s="2">
         <v>45532800</v>
@@ -6497,29 +6518,29 @@
       <c r="B69" t="s">
         <v>1</v>
       </c>
-      <c r="C69" t="s">
-        <v>2</v>
+      <c r="C69">
+        <v>11</v>
       </c>
       <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
         <v>3</v>
       </c>
-      <c r="E69" t="s">
-        <v>4</v>
-      </c>
       <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
         <v>19</v>
       </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
       <c r="H69" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I69" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K69" s="2">
         <v>214508200</v>
@@ -6574,29 +6595,29 @@
       <c r="B70" t="s">
         <v>1</v>
       </c>
-      <c r="C70" t="s">
-        <v>2</v>
+      <c r="C70">
+        <v>11</v>
       </c>
       <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
         <v>3</v>
       </c>
-      <c r="E70" t="s">
-        <v>4</v>
-      </c>
       <c r="F70" t="s">
+        <v>177</v>
+      </c>
+      <c r="G70" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70" t="s">
+        <v>179</v>
+      </c>
+      <c r="I70" t="s">
         <v>180</v>
       </c>
-      <c r="G70" t="s">
-        <v>181</v>
-      </c>
-      <c r="H70" t="s">
-        <v>182</v>
-      </c>
-      <c r="I70" t="s">
-        <v>183</v>
-      </c>
       <c r="J70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K70" s="2">
         <v>45515952</v>
@@ -6651,29 +6672,29 @@
       <c r="B71" t="s">
         <v>1</v>
       </c>
-      <c r="C71" t="s">
-        <v>2</v>
+      <c r="C71">
+        <v>11</v>
       </c>
       <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
         <v>3</v>
       </c>
-      <c r="E71" t="s">
-        <v>4</v>
-      </c>
       <c r="F71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" t="s">
         <v>49</v>
       </c>
-      <c r="G71" t="s">
-        <v>50</v>
-      </c>
       <c r="H71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K71" s="2">
         <v>385097544</v>
@@ -6728,29 +6749,29 @@
       <c r="B72" t="s">
         <v>1</v>
       </c>
-      <c r="C72" t="s">
-        <v>103</v>
+      <c r="C72">
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G72" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H72" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I72" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K72" s="2">
         <v>8519043</v>
@@ -6805,29 +6826,29 @@
       <c r="B73" t="s">
         <v>1</v>
       </c>
-      <c r="C73" t="s">
-        <v>103</v>
+      <c r="C73">
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H73" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I73" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K73" s="2">
         <v>79711582</v>
@@ -6882,29 +6903,29 @@
       <c r="B74" t="s">
         <v>1</v>
       </c>
-      <c r="C74" t="s">
-        <v>2</v>
+      <c r="C74">
+        <v>11</v>
       </c>
       <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
         <v>3</v>
       </c>
-      <c r="E74" t="s">
-        <v>4</v>
-      </c>
       <c r="F74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" t="s">
         <v>53</v>
       </c>
-      <c r="G74" t="s">
-        <v>54</v>
-      </c>
       <c r="H74" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I74" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K74" s="2">
         <v>98496000</v>
@@ -6959,29 +6980,29 @@
       <c r="B75" t="s">
         <v>1</v>
       </c>
-      <c r="C75" t="s">
-        <v>2</v>
+      <c r="C75">
+        <v>11</v>
       </c>
       <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
         <v>3</v>
       </c>
-      <c r="E75" t="s">
-        <v>4</v>
-      </c>
       <c r="F75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I75" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K75" s="2">
         <v>0</v>
@@ -7036,29 +7057,29 @@
       <c r="B76" t="s">
         <v>1</v>
       </c>
-      <c r="C76" t="s">
-        <v>2</v>
+      <c r="C76">
+        <v>11</v>
       </c>
       <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
         <v>3</v>
       </c>
-      <c r="E76" t="s">
-        <v>4</v>
-      </c>
       <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
         <v>15</v>
       </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
       <c r="H76" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I76" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K76" s="2">
         <v>0</v>
@@ -7113,29 +7134,29 @@
       <c r="B77" t="s">
         <v>1</v>
       </c>
-      <c r="C77" t="s">
-        <v>103</v>
+      <c r="C77">
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F77" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" t="s">
+        <v>192</v>
+      </c>
+      <c r="H77" t="s">
+        <v>193</v>
+      </c>
+      <c r="I77" t="s">
         <v>194</v>
       </c>
-      <c r="G77" t="s">
-        <v>195</v>
-      </c>
-      <c r="H77" t="s">
-        <v>196</v>
-      </c>
-      <c r="I77" t="s">
-        <v>197</v>
-      </c>
       <c r="J77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K77" s="2">
         <v>20520025</v>
@@ -7190,29 +7211,29 @@
       <c r="B78" t="s">
         <v>1</v>
       </c>
-      <c r="C78" t="s">
-        <v>103</v>
+      <c r="C78">
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F78" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G78" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" t="s">
         <v>195</v>
       </c>
-      <c r="H78" t="s">
-        <v>198</v>
-      </c>
       <c r="I78" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K78" s="2">
         <v>8973326</v>
@@ -7267,29 +7288,29 @@
       <c r="B79" t="s">
         <v>1</v>
       </c>
-      <c r="C79" t="s">
-        <v>2</v>
+      <c r="C79">
+        <v>11</v>
       </c>
       <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
         <v>3</v>
       </c>
-      <c r="E79" t="s">
-        <v>4</v>
-      </c>
       <c r="F79" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s">
         <v>43</v>
       </c>
-      <c r="G79" t="s">
-        <v>44</v>
-      </c>
       <c r="H79" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I79" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K79" s="2">
         <v>465127246</v>
@@ -7344,29 +7365,29 @@
       <c r="B80" t="s">
         <v>1</v>
       </c>
-      <c r="C80" t="s">
-        <v>103</v>
+      <c r="C80">
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F80" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G80" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H80" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I80" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K80" s="2">
         <v>0</v>
@@ -7421,29 +7442,29 @@
       <c r="B81" t="s">
         <v>1</v>
       </c>
-      <c r="C81" t="s">
-        <v>2</v>
+      <c r="C81">
+        <v>11</v>
       </c>
       <c r="D81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
         <v>3</v>
       </c>
-      <c r="E81" t="s">
-        <v>4</v>
-      </c>
       <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
         <v>10</v>
       </c>
-      <c r="G81" t="s">
-        <v>11</v>
-      </c>
       <c r="H81" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I81" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K81" s="2">
         <v>63435744</v>
@@ -7498,29 +7519,29 @@
       <c r="B82" t="s">
         <v>1</v>
       </c>
-      <c r="C82" t="s">
-        <v>103</v>
+      <c r="C82">
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G82" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H82" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I82" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K82" s="2">
         <v>0</v>
@@ -7575,29 +7596,29 @@
       <c r="B83" t="s">
         <v>1</v>
       </c>
-      <c r="C83" t="s">
-        <v>103</v>
+      <c r="C83">
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F83" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G83" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H83" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I83" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K83" s="2">
         <v>0</v>
@@ -7652,29 +7673,29 @@
       <c r="B84" t="s">
         <v>1</v>
       </c>
-      <c r="C84" t="s">
-        <v>2</v>
+      <c r="C84">
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F84" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s">
         <v>43</v>
       </c>
-      <c r="G84" t="s">
-        <v>44</v>
-      </c>
       <c r="H84" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I84" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K84" s="2">
         <v>78675840</v>
@@ -7729,29 +7750,29 @@
       <c r="B85" t="s">
         <v>1</v>
       </c>
-      <c r="C85" t="s">
-        <v>103</v>
+      <c r="C85">
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F85" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G85" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H85" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K85" s="2">
         <v>380816</v>
@@ -7778,7 +7799,7 @@
         <v>142724</v>
       </c>
       <c r="S85" s="2">
-        <v>209650</v>
+        <v>357090</v>
       </c>
       <c r="T85" s="2">
         <v>0</v>
@@ -7796,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="Y85" s="2">
-        <v>352374</v>
+        <v>499814</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
@@ -7806,29 +7827,29 @@
       <c r="B86" t="s">
         <v>1</v>
       </c>
-      <c r="C86" t="s">
-        <v>103</v>
+      <c r="C86">
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F86" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G86" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H86" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I86" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K86" s="2">
         <v>20646584</v>
@@ -7883,29 +7904,29 @@
       <c r="B87" t="s">
         <v>1</v>
       </c>
-      <c r="C87" t="s">
-        <v>2</v>
+      <c r="C87">
+        <v>11</v>
       </c>
       <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
         <v>3</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>4</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>5</v>
       </c>
-      <c r="G87" t="s">
-        <v>6</v>
-      </c>
       <c r="H87" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I87" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K87" s="2">
         <v>9515880</v>
@@ -7960,29 +7981,29 @@
       <c r="B88" t="s">
         <v>1</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>101</v>
+      </c>
+      <c r="F88" t="s">
+        <v>102</v>
+      </c>
+      <c r="G88" t="s">
         <v>103</v>
       </c>
-      <c r="D88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" t="s">
-        <v>104</v>
-      </c>
-      <c r="F88" t="s">
-        <v>105</v>
-      </c>
-      <c r="G88" t="s">
-        <v>106</v>
-      </c>
       <c r="H88" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I88" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K88" s="2">
         <v>30274629</v>
@@ -8037,29 +8058,29 @@
       <c r="B89" t="s">
         <v>1</v>
       </c>
-      <c r="C89" t="s">
-        <v>2</v>
+      <c r="C89">
+        <v>11</v>
       </c>
       <c r="D89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
         <v>3</v>
       </c>
-      <c r="E89" t="s">
-        <v>4</v>
-      </c>
       <c r="F89" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I89" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K89" s="2">
         <v>1287576</v>
@@ -8089,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="T89" s="2">
-        <v>0</v>
+        <v>3410748</v>
       </c>
       <c r="U89" s="2">
         <v>0</v>
@@ -8104,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="Y89" s="2">
-        <v>0</v>
+        <v>3410748</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -8114,29 +8135,29 @@
       <c r="B90" t="s">
         <v>1</v>
       </c>
-      <c r="C90" t="s">
-        <v>2</v>
+      <c r="C90">
+        <v>11</v>
       </c>
       <c r="D90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
         <v>3</v>
       </c>
-      <c r="E90" t="s">
-        <v>4</v>
-      </c>
       <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
         <v>15</v>
       </c>
-      <c r="G90" t="s">
-        <v>16</v>
-      </c>
       <c r="H90" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I90" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K90" s="2">
         <v>18107280</v>
@@ -8166,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="T90" s="2">
-        <v>0</v>
+        <v>8756640</v>
       </c>
       <c r="U90" s="2">
         <v>0</v>
@@ -8181,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="Y90" s="2">
-        <v>0</v>
+        <v>8756640</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
@@ -8191,29 +8212,29 @@
       <c r="B91" t="s">
         <v>1</v>
       </c>
-      <c r="C91" t="s">
-        <v>103</v>
+      <c r="C91">
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G91" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H91" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I91" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K91" s="2">
         <v>0</v>
@@ -8268,29 +8289,29 @@
       <c r="B92" t="s">
         <v>1</v>
       </c>
-      <c r="C92" t="s">
-        <v>2</v>
+      <c r="C92">
+        <v>11</v>
       </c>
       <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
         <v>3</v>
       </c>
-      <c r="E92" t="s">
-        <v>4</v>
-      </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H92" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I92" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K92" s="2">
         <v>1647432</v>
@@ -8345,29 +8366,29 @@
       <c r="B93" t="s">
         <v>1</v>
       </c>
-      <c r="C93" t="s">
-        <v>103</v>
+      <c r="C93">
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F93" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G93" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H93" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I93" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K93" s="2">
         <v>0</v>
@@ -8422,29 +8443,29 @@
       <c r="B94" t="s">
         <v>1</v>
       </c>
-      <c r="C94" t="s">
-        <v>103</v>
+      <c r="C94">
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F94" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G94" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H94" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I94" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K94" s="2">
         <v>0</v>
@@ -8499,29 +8520,29 @@
       <c r="B95" t="s">
         <v>1</v>
       </c>
-      <c r="C95" t="s">
-        <v>103</v>
+      <c r="C95">
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F95" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G95" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H95" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I95" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K95" s="2">
         <v>-840131</v>
@@ -8576,29 +8597,29 @@
       <c r="B96" t="s">
         <v>1</v>
       </c>
-      <c r="C96" t="s">
-        <v>103</v>
+      <c r="C96">
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F96" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G96" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H96" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I96" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K96" s="2">
         <v>0</v>
@@ -8653,29 +8674,29 @@
       <c r="B97" t="s">
         <v>1</v>
       </c>
-      <c r="C97" t="s">
-        <v>103</v>
+      <c r="C97">
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F97" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G97" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H97" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I97" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K97" s="2">
         <v>0</v>
@@ -8730,29 +8751,29 @@
       <c r="B98" t="s">
         <v>1</v>
       </c>
-      <c r="C98" t="s">
-        <v>2</v>
+      <c r="C98">
+        <v>11</v>
       </c>
       <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
         <v>3</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>4</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>5</v>
       </c>
-      <c r="G98" t="s">
-        <v>6</v>
-      </c>
       <c r="H98" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I98" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K98" s="2">
         <v>18221760</v>
@@ -8807,29 +8828,29 @@
       <c r="B99" t="s">
         <v>1</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>140</v>
+      </c>
+      <c r="F99" t="s">
         <v>65</v>
       </c>
-      <c r="D99" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" t="s">
-        <v>143</v>
-      </c>
-      <c r="F99" t="s">
-        <v>67</v>
-      </c>
       <c r="G99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H99" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I99" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K99" s="2">
         <v>6000000</v>
@@ -8884,29 +8905,29 @@
       <c r="B100" t="s">
         <v>1</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>106</v>
+      </c>
+      <c r="F100" t="s">
+        <v>102</v>
+      </c>
+      <c r="G100" t="s">
         <v>103</v>
       </c>
-      <c r="D100" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" t="s">
-        <v>109</v>
-      </c>
-      <c r="F100" t="s">
-        <v>105</v>
-      </c>
-      <c r="G100" t="s">
-        <v>106</v>
-      </c>
       <c r="H100" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I100" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K100" s="2">
         <v>0</v>
@@ -8961,29 +8982,29 @@
       <c r="B101" t="s">
         <v>1</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>140</v>
+      </c>
+      <c r="F101" t="s">
         <v>65</v>
       </c>
-      <c r="D101" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" t="s">
-        <v>143</v>
-      </c>
-      <c r="F101" t="s">
-        <v>67</v>
-      </c>
       <c r="G101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H101" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I101" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K101" s="2">
         <v>1908655</v>
@@ -9038,32 +9059,32 @@
       <c r="B102" t="s">
         <v>1</v>
       </c>
-      <c r="C102" t="s">
-        <v>2</v>
+      <c r="C102">
+        <v>11</v>
       </c>
       <c r="D102" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
         <v>3</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>4</v>
       </c>
-      <c r="F102" t="s">
-        <v>10</v>
-      </c>
       <c r="G102" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H102" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I102" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K102" s="2">
-        <v>34040736</v>
+        <v>21559204</v>
       </c>
       <c r="L102" s="2">
         <v>0</v>
@@ -9081,13 +9102,13 @@
         <v>0</v>
       </c>
       <c r="Q102" s="2">
-        <v>34040736</v>
+        <v>21559204</v>
       </c>
       <c r="R102" s="2">
         <v>0</v>
       </c>
       <c r="S102" s="2">
-        <v>34040736</v>
+        <v>21559204</v>
       </c>
       <c r="T102" s="2">
         <v>0</v>
@@ -9105,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="Y102" s="2">
-        <v>34040736</v>
+        <v>21559204</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
@@ -9115,32 +9136,32 @@
       <c r="B103" t="s">
         <v>1</v>
       </c>
-      <c r="C103" t="s">
-        <v>2</v>
+      <c r="C103">
+        <v>11</v>
       </c>
       <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
         <v>3</v>
       </c>
-      <c r="E103" t="s">
-        <v>4</v>
-      </c>
       <c r="F103" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="G103" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="H103" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I103" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K103" s="2">
-        <v>7529760</v>
+        <v>34808400</v>
       </c>
       <c r="L103" s="2">
         <v>0</v>
@@ -9158,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="Q103" s="2">
-        <v>7529760</v>
+        <v>34808400</v>
       </c>
       <c r="R103" s="2">
         <v>0</v>
       </c>
       <c r="S103" s="2">
-        <v>7529760</v>
+        <v>34808400</v>
       </c>
       <c r="T103" s="2">
         <v>0</v>
@@ -9182,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="Y103" s="2">
-        <v>7529760</v>
+        <v>34808400</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
@@ -9192,32 +9213,32 @@
       <c r="B104" t="s">
         <v>1</v>
       </c>
-      <c r="C104" t="s">
-        <v>103</v>
+      <c r="C104">
+        <v>11</v>
       </c>
       <c r="D104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
         <v>3</v>
       </c>
-      <c r="E104" t="s">
-        <v>109</v>
-      </c>
       <c r="F104" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="G104" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="H104" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I104" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K104" s="2">
-        <v>106983117</v>
+        <v>34040736</v>
       </c>
       <c r="L104" s="2">
         <v>0</v>
@@ -9235,13 +9256,13 @@
         <v>0</v>
       </c>
       <c r="Q104" s="2">
-        <v>106983117</v>
+        <v>34040736</v>
       </c>
       <c r="R104" s="2">
         <v>0</v>
       </c>
       <c r="S104" s="2">
-        <v>106983117</v>
+        <v>34040736</v>
       </c>
       <c r="T104" s="2">
         <v>0</v>
@@ -9259,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="Y104" s="2">
-        <v>106983117</v>
+        <v>34040736</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
@@ -9269,35 +9290,35 @@
       <c r="B105" t="s">
         <v>1</v>
       </c>
-      <c r="C105" t="s">
-        <v>65</v>
+      <c r="C105">
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="F105" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="G105" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="H105" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I105" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K105" s="2">
-        <v>0</v>
+        <v>106983117</v>
       </c>
       <c r="L105" s="2">
-        <v>29420723</v>
+        <v>0</v>
       </c>
       <c r="M105" s="2">
         <v>0</v>
@@ -9312,16 +9333,16 @@
         <v>0</v>
       </c>
       <c r="Q105" s="2">
-        <v>29420723</v>
+        <v>106983117</v>
       </c>
       <c r="R105" s="2">
         <v>0</v>
       </c>
       <c r="S105" s="2">
-        <v>0</v>
+        <v>106983117</v>
       </c>
       <c r="T105" s="2">
-        <v>29420723</v>
+        <v>0</v>
       </c>
       <c r="U105" s="2">
         <v>0</v>
@@ -9336,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="Y105" s="2">
-        <v>29420723</v>
+        <v>106983117</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
@@ -9346,35 +9367,35 @@
       <c r="B106" t="s">
         <v>1</v>
       </c>
-      <c r="C106" t="s">
-        <v>2</v>
+      <c r="C106">
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="F106" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G106" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="H106" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I106" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K106" s="2">
-        <v>6011280</v>
+        <v>0</v>
       </c>
       <c r="L106" s="2">
-        <v>0</v>
+        <v>29420723</v>
       </c>
       <c r="M106" s="2">
         <v>0</v>
@@ -9389,16 +9410,16 @@
         <v>0</v>
       </c>
       <c r="Q106" s="2">
-        <v>6011280</v>
+        <v>29420723</v>
       </c>
       <c r="R106" s="2">
         <v>0</v>
       </c>
       <c r="S106" s="2">
-        <v>6011280</v>
+        <v>0</v>
       </c>
       <c r="T106" s="2">
-        <v>0</v>
+        <v>29420723</v>
       </c>
       <c r="U106" s="2">
         <v>0</v>
@@ -9413,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="Y106" s="2">
-        <v>6011280</v>
+        <v>29420723</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
@@ -9423,35 +9444,35 @@
       <c r="B107" t="s">
         <v>1</v>
       </c>
-      <c r="C107" t="s">
-        <v>65</v>
+      <c r="C107">
+        <v>11</v>
       </c>
       <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
         <v>3</v>
       </c>
-      <c r="E107" t="s">
-        <v>143</v>
-      </c>
       <c r="F107" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H107" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I107" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K107" s="2">
-        <v>0</v>
+        <v>6011280</v>
       </c>
       <c r="L107" s="2">
-        <v>10584000</v>
+        <v>0</v>
       </c>
       <c r="M107" s="2">
         <v>0</v>
@@ -9466,16 +9487,16 @@
         <v>0</v>
       </c>
       <c r="Q107" s="2">
-        <v>10584000</v>
+        <v>6011280</v>
       </c>
       <c r="R107" s="2">
         <v>0</v>
       </c>
       <c r="S107" s="2">
-        <v>0</v>
+        <v>6011280</v>
       </c>
       <c r="T107" s="2">
-        <v>10584000</v>
+        <v>0</v>
       </c>
       <c r="U107" s="2">
         <v>0</v>
@@ -9490,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="Y107" s="2">
-        <v>10584000</v>
+        <v>6011280</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
@@ -9500,78 +9521,463 @@
       <c r="B108" t="s">
         <v>1</v>
       </c>
-      <c r="C108" t="s">
-        <v>2</v>
+      <c r="C108">
+        <v>15</v>
       </c>
       <c r="D108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>140</v>
+      </c>
+      <c r="F108" t="s">
+        <v>65</v>
+      </c>
+      <c r="G108" t="s">
+        <v>66</v>
+      </c>
+      <c r="H108" t="s">
+        <v>254</v>
+      </c>
+      <c r="I108" t="s">
+        <v>255</v>
+      </c>
+      <c r="J108" t="s">
+        <v>8</v>
+      </c>
+      <c r="K108" s="2">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2">
+        <v>10584000</v>
+      </c>
+      <c r="M108" s="2">
+        <v>0</v>
+      </c>
+      <c r="N108" s="2">
+        <v>0</v>
+      </c>
+      <c r="O108" s="2">
+        <v>0</v>
+      </c>
+      <c r="P108" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>10584000</v>
+      </c>
+      <c r="R108" s="2">
+        <v>0</v>
+      </c>
+      <c r="S108" s="2">
+        <v>0</v>
+      </c>
+      <c r="T108" s="2">
+        <v>10584000</v>
+      </c>
+      <c r="U108" s="2">
+        <v>0</v>
+      </c>
+      <c r="V108" s="2">
+        <v>0</v>
+      </c>
+      <c r="W108" s="2">
+        <v>0</v>
+      </c>
+      <c r="X108" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="2">
+        <v>10584000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
         <v>3</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F109" t="s">
+        <v>42</v>
+      </c>
+      <c r="G109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H109" t="s">
+        <v>256</v>
+      </c>
+      <c r="I109" t="s">
+        <v>257</v>
+      </c>
+      <c r="J109" t="s">
+        <v>8</v>
+      </c>
+      <c r="K109" s="2">
+        <v>13182912</v>
+      </c>
+      <c r="L109" s="2">
+        <v>0</v>
+      </c>
+      <c r="M109" s="2">
+        <v>0</v>
+      </c>
+      <c r="N109" s="2">
+        <v>0</v>
+      </c>
+      <c r="O109" s="2">
+        <v>0</v>
+      </c>
+      <c r="P109" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>13182912</v>
+      </c>
+      <c r="R109" s="2">
+        <v>0</v>
+      </c>
+      <c r="S109" s="2">
+        <v>13182912</v>
+      </c>
+      <c r="T109" s="2">
+        <v>0</v>
+      </c>
+      <c r="U109" s="2">
+        <v>0</v>
+      </c>
+      <c r="V109" s="2">
+        <v>0</v>
+      </c>
+      <c r="W109" s="2">
+        <v>0</v>
+      </c>
+      <c r="X109" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="2">
+        <v>13182912</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" t="s">
         <v>4</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" t="s">
+        <v>258</v>
+      </c>
+      <c r="I110" t="s">
+        <v>259</v>
+      </c>
+      <c r="J110" t="s">
+        <v>8</v>
+      </c>
+      <c r="K110" s="2">
+        <v>8614080</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0</v>
+      </c>
+      <c r="M110" s="2">
+        <v>0</v>
+      </c>
+      <c r="N110" s="2">
+        <v>0</v>
+      </c>
+      <c r="O110" s="2">
+        <v>0</v>
+      </c>
+      <c r="P110" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>8614080</v>
+      </c>
+      <c r="R110" s="2">
+        <v>0</v>
+      </c>
+      <c r="S110" s="2">
+        <v>8614080</v>
+      </c>
+      <c r="T110" s="2">
+        <v>0</v>
+      </c>
+      <c r="U110" s="2">
+        <v>0</v>
+      </c>
+      <c r="V110" s="2">
+        <v>0</v>
+      </c>
+      <c r="W110" s="2">
+        <v>0</v>
+      </c>
+      <c r="X110" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="2">
+        <v>8614080</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>207</v>
+      </c>
+      <c r="F111" t="s">
+        <v>65</v>
+      </c>
+      <c r="G111" t="s">
+        <v>66</v>
+      </c>
+      <c r="H111" t="s">
+        <v>260</v>
+      </c>
+      <c r="I111" t="s">
+        <v>261</v>
+      </c>
+      <c r="J111" t="s">
+        <v>8</v>
+      </c>
+      <c r="K111" s="2">
+        <v>3308720</v>
+      </c>
+      <c r="L111" s="2">
+        <v>0</v>
+      </c>
+      <c r="M111" s="2">
+        <v>0</v>
+      </c>
+      <c r="N111" s="2">
+        <v>0</v>
+      </c>
+      <c r="O111" s="2">
+        <v>0</v>
+      </c>
+      <c r="P111" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>3308720</v>
+      </c>
+      <c r="R111" s="2">
+        <v>0</v>
+      </c>
+      <c r="S111" s="2">
+        <v>3308720</v>
+      </c>
+      <c r="T111" s="2">
+        <v>0</v>
+      </c>
+      <c r="U111" s="2">
+        <v>0</v>
+      </c>
+      <c r="V111" s="2">
+        <v>0</v>
+      </c>
+      <c r="W111" s="2">
+        <v>0</v>
+      </c>
+      <c r="X111" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="2">
+        <v>3308720</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" t="s">
+        <v>262</v>
+      </c>
+      <c r="I112" t="s">
+        <v>263</v>
+      </c>
+      <c r="J112" t="s">
+        <v>8</v>
+      </c>
+      <c r="K112" s="2">
+        <v>5174178</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0</v>
+      </c>
+      <c r="M112" s="2">
+        <v>0</v>
+      </c>
+      <c r="N112" s="2">
+        <v>0</v>
+      </c>
+      <c r="O112" s="2">
+        <v>0</v>
+      </c>
+      <c r="P112" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>5174178</v>
+      </c>
+      <c r="R112" s="2">
+        <v>0</v>
+      </c>
+      <c r="S112" s="2">
+        <v>5174178</v>
+      </c>
+      <c r="T112" s="2">
+        <v>0</v>
+      </c>
+      <c r="U112" s="2">
+        <v>0</v>
+      </c>
+      <c r="V112" s="2">
+        <v>0</v>
+      </c>
+      <c r="W112" s="2">
+        <v>0</v>
+      </c>
+      <c r="X112" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="2">
+        <v>5174178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" t="s">
+        <v>42</v>
+      </c>
+      <c r="G113" t="s">
         <v>43</v>
       </c>
-      <c r="G108" t="s">
-        <v>44</v>
-      </c>
-      <c r="H108" t="s">
-        <v>257</v>
-      </c>
-      <c r="I108" t="s">
-        <v>258</v>
-      </c>
-      <c r="J108" t="s">
-        <v>9</v>
-      </c>
-      <c r="K108" s="2">
-        <v>13182912</v>
-      </c>
-      <c r="L108" s="2">
-        <v>0</v>
-      </c>
-      <c r="M108" s="2">
-        <v>0</v>
-      </c>
-      <c r="N108" s="2">
-        <v>0</v>
-      </c>
-      <c r="O108" s="2">
-        <v>0</v>
-      </c>
-      <c r="P108" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="2">
-        <v>13182912</v>
-      </c>
-      <c r="R108" s="2">
-        <v>0</v>
-      </c>
-      <c r="S108" s="2">
-        <v>13182912</v>
-      </c>
-      <c r="T108" s="2">
-        <v>0</v>
-      </c>
-      <c r="U108" s="2">
-        <v>0</v>
-      </c>
-      <c r="V108" s="2">
-        <v>0</v>
-      </c>
-      <c r="W108" s="2">
-        <v>0</v>
-      </c>
-      <c r="X108" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="2">
-        <v>13182912</v>
+      <c r="H113" t="s">
+        <v>264</v>
+      </c>
+      <c r="I113" t="s">
+        <v>265</v>
+      </c>
+      <c r="J113" t="s">
+        <v>8</v>
+      </c>
+      <c r="K113" s="2">
+        <v>60580872</v>
+      </c>
+      <c r="L113" s="2">
+        <v>0</v>
+      </c>
+      <c r="M113" s="2">
+        <v>0</v>
+      </c>
+      <c r="N113" s="2">
+        <v>0</v>
+      </c>
+      <c r="O113" s="2">
+        <v>0</v>
+      </c>
+      <c r="P113" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>60580872</v>
+      </c>
+      <c r="R113" s="2">
+        <v>0</v>
+      </c>
+      <c r="S113" s="2">
+        <v>60580872</v>
+      </c>
+      <c r="T113" s="2">
+        <v>0</v>
+      </c>
+      <c r="U113" s="2">
+        <v>0</v>
+      </c>
+      <c r="V113" s="2">
+        <v>0</v>
+      </c>
+      <c r="W113" s="2">
+        <v>0</v>
+      </c>
+      <c r="X113" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="2">
+        <v>60580872</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y108"/>
+  <autoFilter ref="A1:Y113"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
